--- a/temp_api_sc.xlsx
+++ b/temp_api_sc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>addresses</t>
   </si>
@@ -25,6 +25,9 @@
     <t>longitude</t>
   </si>
   <si>
+    <t>service_centers</t>
+  </si>
+  <si>
     <t>dilsukhnagar,hyderabad</t>
   </si>
   <si>
@@ -32,6 +35,15 @@
   </si>
   <si>
     <t>gudur, andhra pradesh</t>
+  </si>
+  <si>
+    <t>Dilsukh Tech Hub</t>
+  </si>
+  <si>
+    <t>Stonehouse Service Point</t>
+  </si>
+  <si>
+    <t>Gudur Connect Center</t>
   </si>
 </sst>
 </file>
@@ -389,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,10 +417,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>17.3687826</v>
@@ -416,10 +431,13 @@
       <c r="C2">
         <v>78.52467059999999</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>14.4579301</v>
@@ -427,16 +445,22 @@
       <c r="C3">
         <v>79.9927383</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>14.15105</v>
       </c>
       <c r="C4">
         <v>79.84001000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
